--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA880055-D9BA-8543-AF27-1C334A4F2A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,36 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>SearchData</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>j</t>
+    <t>Litora torqent per conubia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,20 +345,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -391,54 +374,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA880055-D9BA-8543-AF27-1C334A4F2A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF18C4E6-6DF3-BE45-846A-375F22666E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>SearchData</t>
   </si>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -374,6 +374,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
